--- a/biology/Botanique/Albizia_guillainii/Albizia_guillainii.xlsx
+++ b/biology/Botanique/Albizia_guillainii/Albizia_guillainii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albizia guillainii est une espèce d’arbres de la famille des Fabaceae (légumineuses), endémique de la Nouvelle-Calédonie. On la trouve essentiellement dans la forêt sèche. Il s'agit d'une espèce protégée.
 </t>
@@ -513,16 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dimensions
-Cet arbre mesure environ 10 mètres. Exceptionnellement, il peut croître jusqu'à 20 mètres et avoir un tronc de 90 centimètres de diamètre[2].
-Écorce
-Ses rameaux sont couverts de lenticelles[2].
-Feuilles
-Ses feuilles sont composées et présentent plusieurs paires de folioles[2].
-Fleurs
-Les fleurs d'Albizia guillainii, qui sont blanches ou jaunâtres, forment des grappes ombelliformes d'une quinzaine de fleurs environ. Sa floraison a lieu en fin d'année, qui se situe dans la saison chaude calédonienne[2].
-Fruits
-Ses graines brunes sont contenues dans des gousses[2]. Elles peuvent rester viables plusieurs années dans le sol avant de germer[3].
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre mesure environ 10 mètres. Exceptionnellement, il peut croître jusqu'à 20 mètres et avoir un tronc de 90 centimètres de diamètre.
 </t>
         </is>
       </c>
@@ -548,12 +557,162 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Écorce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses rameaux sont couverts de lenticelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Albizia_guillainii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albizia_guillainii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles sont composées et présentent plusieurs paires de folioles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Albizia_guillainii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albizia_guillainii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs d'Albizia guillainii, qui sont blanches ou jaunâtres, forment des grappes ombelliformes d'une quinzaine de fleurs environ. Sa floraison a lieu en fin d'année, qui se situe dans la saison chaude calédonienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Albizia_guillainii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albizia_guillainii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses graines brunes sont contenues dans des gousses. Elles peuvent rester viables plusieurs années dans le sol avant de germer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Albizia_guillainii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albizia_guillainii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La disparition de la forêt sèche, qui constitue son écosystème typique, et en particulier les cerfs qui contribuent à sa dégradation, constituent les principales menaces d'Albizia guillainii. Il fait actuellement partie des espèces classées vulnérables de la liste rouge de l'UICN[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La disparition de la forêt sèche, qui constitue son écosystème typique, et en particulier les cerfs qui contribuent à sa dégradation, constituent les principales menaces d'Albizia guillainii. Il fait actuellement partie des espèces classées vulnérables de la liste rouge de l'UICN.
 </t>
         </is>
       </c>
